--- a/system_cases/SCR_cases/4bus_case_b.xlsx
+++ b/system_cases/SCR_cases/4bus_case_b.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Git\Simplus-Grid-Tool\Simplus-Grid-Tool\system_cases\SCR_cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitRep\Simplus-Grid-Tool\system_cases\SCR_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786CB9D6-E9FD-4EDA-9602-0F280E24BCB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4890FC88-BAEF-48A8-80A8-F12287C6FB04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -855,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -993,7 +993,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="7">
-        <v>0.98899999999999999</v>
+        <v>1.0249999999999999</v>
       </c>
       <c r="D5" s="7">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0.998</v>
+        <v>1.0519000000000001</v>
       </c>
       <c r="D6" s="7">
         <v>0</v>
@@ -1097,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:AW19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
